--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.5877201278672</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H2">
-        <v>26.5877201278672</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I2">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J2">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.08032284433198</v>
+        <v>1.57413</v>
       </c>
       <c r="N2">
-        <v>1.08032284433198</v>
+        <v>4.72239</v>
       </c>
       <c r="O2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q2">
-        <v>28.72332143284013</v>
+        <v>44.85383582687</v>
       </c>
       <c r="R2">
-        <v>28.72332143284013</v>
+        <v>403.6845224418299</v>
       </c>
       <c r="S2">
-        <v>0.0006689653694345196</v>
+        <v>0.0009772369931244852</v>
       </c>
       <c r="T2">
-        <v>0.0006689653694345196</v>
+        <v>0.0009772369931244855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.5877201278672</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H3">
-        <v>26.5877201278672</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I3">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J3">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4982525109528</v>
+        <v>62.503947</v>
       </c>
       <c r="N3">
-        <v>62.4982525109528</v>
+        <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.8293959923635609</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P3">
-        <v>0.8293959923635609</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q3">
-        <v>1661.686046241987</v>
+        <v>1781.010321427953</v>
       </c>
       <c r="R3">
-        <v>1661.686046241987</v>
+        <v>16029.09289285158</v>
       </c>
       <c r="S3">
-        <v>0.03870062250313167</v>
+        <v>0.03880312885510866</v>
       </c>
       <c r="T3">
-        <v>0.03870062250313167</v>
+        <v>0.03880312885510867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.5877201278672</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H4">
-        <v>26.5877201278672</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I4">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J4">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>11.7753606251016</v>
+        <v>0.182903</v>
       </c>
       <c r="N4">
-        <v>11.7753606251016</v>
+        <v>0.548709</v>
       </c>
       <c r="O4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q4">
-        <v>313.0799927049087</v>
+        <v>5.211704963530333</v>
       </c>
       <c r="R4">
-        <v>313.0799927049087</v>
+        <v>46.90534467177299</v>
       </c>
       <c r="S4">
-        <v>0.007291624454786699</v>
+        <v>0.0001135481680378671</v>
       </c>
       <c r="T4">
-        <v>0.007291624454786699</v>
+        <v>0.0001135481680378671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>141.682838065087</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H5">
-        <v>141.682838065087</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I5">
-        <v>0.2486521205392012</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J5">
-        <v>0.2486521205392012</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.08032284433198</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N5">
-        <v>1.08032284433198</v>
+        <v>0.281423</v>
       </c>
       <c r="O5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q5">
-        <v>153.0632066115021</v>
+        <v>2.672989956336778</v>
       </c>
       <c r="R5">
-        <v>153.0632066115021</v>
+        <v>24.056909607031</v>
       </c>
       <c r="S5">
-        <v>0.003564837889556393</v>
+        <v>5.823681786469818E-05</v>
       </c>
       <c r="T5">
-        <v>0.003564837889556393</v>
+        <v>5.823681786469819E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>141.682838065087</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H6">
-        <v>141.682838065087</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I6">
-        <v>0.2486521205392012</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J6">
-        <v>0.2486521205392012</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.4982525109528</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N6">
-        <v>62.4982525109528</v>
+        <v>40.155898</v>
       </c>
       <c r="O6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q6">
-        <v>8854.929789860244</v>
+        <v>381.4056137617895</v>
       </c>
       <c r="R6">
-        <v>8854.929789860244</v>
+        <v>3432.650523856105</v>
       </c>
       <c r="S6">
-        <v>0.2062310722679145</v>
+        <v>0.008309739140082359</v>
       </c>
       <c r="T6">
-        <v>0.2062310722679145</v>
+        <v>0.008309739140082361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>141.682838065087</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H7">
-        <v>141.682838065087</v>
+        <v>426.244309</v>
       </c>
       <c r="I7">
-        <v>0.2486521205392012</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J7">
-        <v>0.2486521205392012</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7753606251016</v>
+        <v>1.57413</v>
       </c>
       <c r="N7">
-        <v>11.7753606251016</v>
+        <v>4.72239</v>
       </c>
       <c r="O7">
-        <v>0.1562673597855136</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P7">
-        <v>0.1562673597855136</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q7">
-        <v>1668.366512604272</v>
+        <v>223.65465137539</v>
       </c>
       <c r="R7">
-        <v>1668.366512604272</v>
+        <v>2012.89186237851</v>
       </c>
       <c r="S7">
-        <v>0.03885621038173026</v>
+        <v>0.004872796160667695</v>
       </c>
       <c r="T7">
-        <v>0.03885621038173026</v>
+        <v>0.004872796160667695</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>209.786248059852</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H8">
-        <v>209.786248059852</v>
+        <v>426.244309</v>
       </c>
       <c r="I8">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J8">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.08032284433198</v>
+        <v>62.503947</v>
       </c>
       <c r="N8">
-        <v>1.08032284433198</v>
+        <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.01433664785092544</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P8">
-        <v>0.01433664785092544</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q8">
-        <v>226.6368762057536</v>
+        <v>8880.650566262542</v>
       </c>
       <c r="R8">
-        <v>226.6368762057536</v>
+        <v>79925.85509636288</v>
       </c>
       <c r="S8">
-        <v>0.005278366639212039</v>
+        <v>0.1934840152771226</v>
       </c>
       <c r="T8">
-        <v>0.005278366639212039</v>
+        <v>0.1934840152771227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>209.786248059852</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H9">
-        <v>209.786248059852</v>
+        <v>426.244309</v>
       </c>
       <c r="I9">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J9">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>62.4982525109528</v>
+        <v>0.182903</v>
       </c>
       <c r="N9">
-        <v>62.4982525109528</v>
+        <v>0.548709</v>
       </c>
       <c r="O9">
-        <v>0.8293959923635609</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P9">
-        <v>0.8293959923635609</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q9">
-        <v>13111.27390457001</v>
+        <v>25.98712094967567</v>
       </c>
       <c r="R9">
-        <v>13111.27390457001</v>
+        <v>233.884088547081</v>
       </c>
       <c r="S9">
-        <v>0.3053612101175651</v>
+        <v>0.0005661851538148713</v>
       </c>
       <c r="T9">
-        <v>0.3053612101175651</v>
+        <v>0.0005661851538148714</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>209.786248059852</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H10">
-        <v>209.786248059852</v>
+        <v>426.244309</v>
       </c>
       <c r="I10">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J10">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>11.7753606251016</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N10">
-        <v>11.7753606251016</v>
+        <v>0.281423</v>
       </c>
       <c r="O10">
-        <v>0.1562673597855136</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P10">
-        <v>0.1562673597855136</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q10">
-        <v>2470.308725091778</v>
+        <v>13.32832801907856</v>
       </c>
       <c r="R10">
-        <v>2470.308725091778</v>
+        <v>119.954952171707</v>
       </c>
       <c r="S10">
-        <v>0.05753342254523998</v>
+        <v>0.0002903862056974508</v>
       </c>
       <c r="T10">
-        <v>0.05753342254523998</v>
+        <v>0.0002903862056974508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>127.549377663799</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H11">
-        <v>127.549377663799</v>
+        <v>426.244309</v>
       </c>
       <c r="I11">
-        <v>0.2238480232516901</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J11">
-        <v>0.2238480232516901</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.08032284433198</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N11">
-        <v>1.08032284433198</v>
+        <v>40.155898</v>
       </c>
       <c r="O11">
-        <v>0.01433664785092544</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P11">
-        <v>0.01433664785092544</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q11">
-        <v>137.7945064705293</v>
+        <v>1901.802555031609</v>
       </c>
       <c r="R11">
-        <v>137.7945064705293</v>
+        <v>17116.22299528448</v>
       </c>
       <c r="S11">
-        <v>0.003209230281485252</v>
+        <v>0.04143484667775502</v>
       </c>
       <c r="T11">
-        <v>0.003209230281485252</v>
+        <v>0.04143484667775503</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>127.549377663799</v>
+        <v>209.9177196666667</v>
       </c>
       <c r="H12">
-        <v>127.549377663799</v>
+        <v>629.753159</v>
       </c>
       <c r="I12">
-        <v>0.2238480232516901</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="J12">
-        <v>0.2238480232516901</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.4982525109528</v>
+        <v>1.57413</v>
       </c>
       <c r="N12">
-        <v>62.4982525109528</v>
+        <v>4.72239</v>
       </c>
       <c r="O12">
-        <v>0.8293959923635609</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P12">
-        <v>0.8293959923635609</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q12">
-        <v>7971.613212846994</v>
+        <v>330.43778005889</v>
       </c>
       <c r="R12">
-        <v>7971.613212846994</v>
+        <v>2973.94002053001</v>
       </c>
       <c r="S12">
-        <v>0.185658653383457</v>
+        <v>0.007199295593043453</v>
       </c>
       <c r="T12">
-        <v>0.185658653383457</v>
+        <v>0.007199295593043453</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>127.549377663799</v>
+        <v>209.9177196666667</v>
       </c>
       <c r="H13">
-        <v>127.549377663799</v>
+        <v>629.753159</v>
       </c>
       <c r="I13">
-        <v>0.2238480232516901</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="J13">
-        <v>0.2238480232516901</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.7753606251016</v>
+        <v>62.503947</v>
       </c>
       <c r="N13">
-        <v>11.7753606251016</v>
+        <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.1562673597855136</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P13">
-        <v>0.1562673597855136</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q13">
-        <v>1501.939919498512</v>
+        <v>13120.68602440619</v>
       </c>
       <c r="R13">
-        <v>1501.939919498512</v>
+        <v>118086.1742196557</v>
       </c>
       <c r="S13">
-        <v>0.03498013958674789</v>
+        <v>0.2858622795988397</v>
       </c>
       <c r="T13">
-        <v>0.03498013958674789</v>
+        <v>0.2858622795988398</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>64.19727385342431</v>
+        <v>209.9177196666667</v>
       </c>
       <c r="H14">
-        <v>64.19727385342431</v>
+        <v>629.753159</v>
       </c>
       <c r="I14">
-        <v>0.1126656445797387</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="J14">
-        <v>0.1126656445797387</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.08032284433198</v>
+        <v>0.182903</v>
       </c>
       <c r="N14">
-        <v>1.08032284433198</v>
+        <v>0.548709</v>
       </c>
       <c r="O14">
-        <v>0.01433664785092544</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P14">
-        <v>0.01433664785092544</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q14">
-        <v>69.35378148769038</v>
+        <v>38.39458068019233</v>
       </c>
       <c r="R14">
-        <v>69.35378148769038</v>
+        <v>345.551226121731</v>
       </c>
       <c r="S14">
-        <v>0.001615247671237241</v>
+        <v>0.0008365082692372465</v>
       </c>
       <c r="T14">
-        <v>0.001615247671237241</v>
+        <v>0.0008365082692372465</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>64.19727385342431</v>
+        <v>209.9177196666667</v>
       </c>
       <c r="H15">
-        <v>64.19727385342431</v>
+        <v>629.753159</v>
       </c>
       <c r="I15">
-        <v>0.1126656445797387</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="J15">
-        <v>0.1126656445797387</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>62.4982525109528</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N15">
-        <v>62.4982525109528</v>
+        <v>0.281423</v>
       </c>
       <c r="O15">
-        <v>0.8293959923635609</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P15">
-        <v>0.8293959923635609</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q15">
-        <v>4012.2174318061</v>
+        <v>19.69189147391744</v>
       </c>
       <c r="R15">
-        <v>4012.2174318061</v>
+        <v>177.227023265257</v>
       </c>
       <c r="S15">
-        <v>0.09344443409149264</v>
+        <v>0.0004290300808872346</v>
       </c>
       <c r="T15">
-        <v>0.09344443409149264</v>
+        <v>0.0004290300808872346</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>64.19727385342431</v>
+        <v>209.9177196666667</v>
       </c>
       <c r="H16">
-        <v>64.19727385342431</v>
+        <v>629.753159</v>
       </c>
       <c r="I16">
-        <v>0.1126656445797387</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="J16">
-        <v>0.1126656445797387</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7753606251016</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N16">
-        <v>11.7753606251016</v>
+        <v>40.155898</v>
       </c>
       <c r="O16">
-        <v>0.1562673597855136</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P16">
-        <v>0.1562673597855136</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q16">
-        <v>755.9460507724771</v>
+        <v>2809.811513109087</v>
       </c>
       <c r="R16">
-        <v>755.9460507724771</v>
+        <v>25288.30361798178</v>
       </c>
       <c r="S16">
-        <v>0.01760596281700884</v>
+        <v>0.06121776886409263</v>
       </c>
       <c r="T16">
-        <v>0.01760596281700884</v>
+        <v>0.06121776886409263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>132.271009</v>
+      </c>
+      <c r="H17">
+        <v>396.813027</v>
+      </c>
+      <c r="I17">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J17">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.57413</v>
+      </c>
+      <c r="N17">
+        <v>4.72239</v>
+      </c>
+      <c r="O17">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P17">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q17">
+        <v>208.21176339717</v>
+      </c>
+      <c r="R17">
+        <v>1873.90587057453</v>
+      </c>
+      <c r="S17">
+        <v>0.004536339732030361</v>
+      </c>
+      <c r="T17">
+        <v>0.004536339732030361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>132.271009</v>
+      </c>
+      <c r="H18">
+        <v>396.813027</v>
+      </c>
+      <c r="I18">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J18">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>62.503947</v>
+      </c>
+      <c r="N18">
+        <v>187.511841</v>
+      </c>
+      <c r="O18">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P18">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q18">
+        <v>8267.460136172525</v>
+      </c>
+      <c r="R18">
+        <v>74407.14122555271</v>
+      </c>
+      <c r="S18">
+        <v>0.1801243468994428</v>
+      </c>
+      <c r="T18">
+        <v>0.1801243468994428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>132.271009</v>
+      </c>
+      <c r="H19">
+        <v>396.813027</v>
+      </c>
+      <c r="I19">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J19">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.182903</v>
+      </c>
+      <c r="N19">
+        <v>0.548709</v>
+      </c>
+      <c r="O19">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P19">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q19">
+        <v>24.192764359127</v>
+      </c>
+      <c r="R19">
+        <v>217.734879232143</v>
+      </c>
+      <c r="S19">
+        <v>0.0005270912478686951</v>
+      </c>
+      <c r="T19">
+        <v>0.0005270912478686951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>132.271009</v>
+      </c>
+      <c r="H20">
+        <v>396.813027</v>
+      </c>
+      <c r="I20">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J20">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.281423</v>
+      </c>
+      <c r="O20">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P20">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q20">
+        <v>12.40803472193567</v>
+      </c>
+      <c r="R20">
+        <v>111.672312497421</v>
+      </c>
+      <c r="S20">
+        <v>0.0002703356428433866</v>
+      </c>
+      <c r="T20">
+        <v>0.0002703356428433866</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>132.271009</v>
+      </c>
+      <c r="H21">
+        <v>396.813027</v>
+      </c>
+      <c r="I21">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J21">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N21">
+        <v>40.155898</v>
+      </c>
+      <c r="O21">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P21">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q21">
+        <v>1770.487048587028</v>
+      </c>
+      <c r="R21">
+        <v>15934.38343728325</v>
+      </c>
+      <c r="S21">
+        <v>0.03857385679131933</v>
+      </c>
+      <c r="T21">
+        <v>0.03857385679131933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>77.646779</v>
+      </c>
+      <c r="H22">
+        <v>232.940337</v>
+      </c>
+      <c r="I22">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J22">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.57413</v>
+      </c>
+      <c r="N22">
+        <v>4.72239</v>
+      </c>
+      <c r="O22">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P22">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q22">
+        <v>122.22612422727</v>
+      </c>
+      <c r="R22">
+        <v>1100.03511804543</v>
+      </c>
+      <c r="S22">
+        <v>0.002662958204559251</v>
+      </c>
+      <c r="T22">
+        <v>0.002662958204559252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>77.646779</v>
+      </c>
+      <c r="H23">
+        <v>232.940337</v>
+      </c>
+      <c r="I23">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J23">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>62.503947</v>
+      </c>
+      <c r="N23">
+        <v>187.511841</v>
+      </c>
+      <c r="O23">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P23">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q23">
+        <v>4853.230159336713</v>
+      </c>
+      <c r="R23">
+        <v>43679.07143403042</v>
+      </c>
+      <c r="S23">
+        <v>0.1057380257545353</v>
+      </c>
+      <c r="T23">
+        <v>0.1057380257545353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>77.646779</v>
+      </c>
+      <c r="H24">
+        <v>232.940337</v>
+      </c>
+      <c r="I24">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J24">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.182903</v>
+      </c>
+      <c r="N24">
+        <v>0.548709</v>
+      </c>
+      <c r="O24">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P24">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q24">
+        <v>14.201828819437</v>
+      </c>
+      <c r="R24">
+        <v>127.816459374933</v>
+      </c>
+      <c r="S24">
+        <v>0.0003094172936723782</v>
+      </c>
+      <c r="T24">
+        <v>0.0003094172936723783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>77.646779</v>
+      </c>
+      <c r="H25">
+        <v>232.940337</v>
+      </c>
+      <c r="I25">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J25">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.281423</v>
+      </c>
+      <c r="O25">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P25">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q25">
+        <v>7.283863162172333</v>
+      </c>
+      <c r="R25">
+        <v>65.554768459551</v>
+      </c>
+      <c r="S25">
+        <v>0.0001586945777035946</v>
+      </c>
+      <c r="T25">
+        <v>0.0001586945777035946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>77.646779</v>
+      </c>
+      <c r="H26">
+        <v>232.940337</v>
+      </c>
+      <c r="I26">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J26">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N26">
+        <v>40.155898</v>
+      </c>
+      <c r="O26">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P26">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q26">
+        <v>1039.325379184181</v>
+      </c>
+      <c r="R26">
+        <v>9353.928412657626</v>
+      </c>
+      <c r="S26">
+        <v>0.02264393200064891</v>
+      </c>
+      <c r="T26">
+        <v>0.02264393200064892</v>
       </c>
     </row>
   </sheetData>
